--- a/maze/metricasAldous.xlsx
+++ b/maze/metricasAldous.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="metricasAldous" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>junctions</t>
   </si>
@@ -47,11 +47,53 @@
   <si>
     <t>GBFVisitados</t>
   </si>
+  <si>
+    <t>Junctions</t>
+  </si>
+  <si>
+    <t>Crossroads</t>
+  </si>
+  <si>
+    <t>Deadends</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Aldous</t>
+  </si>
+  <si>
+    <t>Tamanho do caminho (células)</t>
+  </si>
+  <si>
+    <t>Porcentagem de células visitadas</t>
+  </si>
+  <si>
+    <t>A*</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>GBF</t>
+  </si>
+  <si>
+    <t>Resolução Aldous</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -484,8 +526,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -528,11 +585,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -572,6 +635,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -886,15 +950,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21859999999999999</v>
       </c>
@@ -915,8 +988,19 @@
       <c r="C2">
         <v>0.2918</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.22040000000000001</v>
       </c>
@@ -926,8 +1010,23 @@
       <c r="C3">
         <v>0.29320000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.21879999999999999</v>
       </c>
@@ -937,8 +1036,35 @@
       <c r="C4">
         <v>0.29120000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.222</v>
       </c>
@@ -948,8 +1074,44 @@
       <c r="C5">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <f>AVERAGE(A2:A101)</f>
+        <v>0.22239900000000007</v>
+      </c>
+      <c r="G5" s="2">
+        <f>MAX(A2:A101)</f>
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <f>MIN(A2:A101)</f>
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <f>AVERAGE(B2:B101)</f>
+        <v>3.5386999999999988E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <f>MAX(B2:B101)</f>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <f>MIN(B2:B101)</f>
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.29337299999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <f>MAX(C2:C101)</f>
+        <v>0.29920000000000002</v>
+      </c>
+      <c r="N5" s="2">
+        <f>MIN(C2:C101)</f>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.21970000000000001</v>
       </c>
@@ -960,7 +1122,7 @@
         <v>0.29070000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.22600000000000001</v>
       </c>
@@ -971,7 +1133,7 @@
         <v>0.29339999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.22370000000000001</v>
       </c>
@@ -982,7 +1144,7 @@
         <v>0.29189999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.2215</v>
       </c>
@@ -993,7 +1155,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.2205</v>
       </c>
@@ -1004,7 +1166,7 @@
         <v>0.29249999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.21890000000000001</v>
       </c>
@@ -1015,7 +1177,7 @@
         <v>0.29070000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.22439999999999999</v>
       </c>
@@ -1026,7 +1188,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.21970000000000001</v>
       </c>
@@ -1037,7 +1199,7 @@
         <v>0.29110000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.21890000000000001</v>
       </c>
@@ -1048,7 +1210,7 @@
         <v>0.29430000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.22070000000000001</v>
       </c>
@@ -1059,7 +1221,7 @@
         <v>0.29210000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.22170000000000001</v>
       </c>
@@ -1950,7 +2112,7 @@
         <v>0.29170000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.22309999999999999</v>
       </c>
@@ -1961,7 +2123,7 @@
         <v>0.29170000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.21959999999999999</v>
       </c>
@@ -1972,7 +2134,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.2286</v>
       </c>
@@ -1983,7 +2145,7 @@
         <v>0.29520000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.22420000000000001</v>
       </c>
@@ -1994,7 +2156,7 @@
         <v>0.29480000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.22470000000000001</v>
       </c>
@@ -2005,7 +2167,18 @@
         <v>0.29430000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -2024,8 +2197,19 @@
       <c r="F103" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103" s="1"/>
+      <c r="I103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>442</v>
       </c>
@@ -2044,8 +2228,29 @@
       <c r="F104">
         <v>0.92430000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>464</v>
       </c>
@@ -2064,8 +2269,33 @@
       <c r="F105">
         <v>0.92910000000000004</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H105" s="1"/>
+      <c r="I105" s="1">
+        <f>AVERAGE(A104:A203)</f>
+        <v>437.62</v>
+      </c>
+      <c r="J105" s="1">
+        <f>MAX(A104:A203)</f>
+        <v>794</v>
+      </c>
+      <c r="K105" s="1">
+        <f>MIN(A104:A203)</f>
+        <v>292</v>
+      </c>
+      <c r="L105" s="2">
+        <f>AVERAGE(B104:B203)</f>
+        <v>0.81039699999999992</v>
+      </c>
+      <c r="M105" s="2">
+        <f>MAX(B104:B203)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="N105" s="2">
+        <f>MIN(B104:B203)</f>
+        <v>0.39079999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>382</v>
       </c>
@@ -2084,8 +2314,29 @@
       <c r="F106">
         <v>0.67749999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>420</v>
       </c>
@@ -2104,8 +2355,33 @@
       <c r="F107">
         <v>0.65839999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107" s="1"/>
+      <c r="I107" s="1">
+        <f>AVERAGE(C104:C203)</f>
+        <v>437.62</v>
+      </c>
+      <c r="J107" s="1">
+        <f>MAX(C104:C203)</f>
+        <v>794</v>
+      </c>
+      <c r="K107" s="1">
+        <f>MIN(C104:C203)</f>
+        <v>292</v>
+      </c>
+      <c r="L107" s="2">
+        <f>AVERAGE(D104:D203)</f>
+        <v>0.8128289999999998</v>
+      </c>
+      <c r="M107" s="2">
+        <f>MAX(D104:D203)</f>
+        <v>1</v>
+      </c>
+      <c r="N107" s="2">
+        <f>MIN(D104:D203)</f>
+        <v>0.39169999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>470</v>
       </c>
@@ -2124,8 +2400,29 @@
       <c r="F108">
         <v>0.80210000000000004</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>418</v>
       </c>
@@ -2144,8 +2441,33 @@
       <c r="F109">
         <v>0.99939999999999996</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109" s="1"/>
+      <c r="I109" s="1">
+        <f>AVERAGE(E104:E203)</f>
+        <v>437.62</v>
+      </c>
+      <c r="J109" s="1">
+        <f>MAX(E104:E203)</f>
+        <v>794</v>
+      </c>
+      <c r="K109" s="1">
+        <f>MIN(E104:E203)</f>
+        <v>292</v>
+      </c>
+      <c r="L109" s="2">
+        <f>AVERAGE(F104:F203)</f>
+        <v>0.81039699999999992</v>
+      </c>
+      <c r="M109" s="2">
+        <f>MAX(F104:F203)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="N109" s="2">
+        <f>MIN(F104:F203)</f>
+        <v>0.39079999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>410</v>
       </c>
@@ -2165,7 +2487,7 @@
         <v>0.91930000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>420</v>
       </c>
@@ -2185,7 +2507,7 @@
         <v>0.92279999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>590</v>
       </c>
@@ -4026,6 +4348,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="H102:N102"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>